--- a/Aluminum/6 MONTH/20226/Aluminum_Best_by_arima.xlsx
+++ b/Aluminum/6 MONTH/20226/Aluminum_Best_by_arima.xlsx
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2892.589037724365</v>
+        <v>2855.495093862349</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -797,10 +797,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2901.685788230129</v>
+        <v>2862.286540630057</v>
       </c>
       <c r="C3">
-        <v>9.096750505763339</v>
+        <v>6.791446767707839</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -808,10 +808,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2902.079246730987</v>
+        <v>2859.838973857915</v>
       </c>
       <c r="C4">
-        <v>0.3934585008582872</v>
+        <v>-2.447566772141272</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -819,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2910.234658164938</v>
+        <v>2869.708358878924</v>
       </c>
       <c r="C5">
-        <v>8.155411433950576</v>
+        <v>9.869385021008839</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -830,10 +830,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2910.244970493381</v>
+        <v>2869.300401750303</v>
       </c>
       <c r="C6">
-        <v>0.01031232844343322</v>
+        <v>-0.4079571286210921</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -841,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2916.264319316863</v>
+        <v>2878.382250976976</v>
       </c>
       <c r="C7">
-        <v>6.019348823481778</v>
+        <v>9.081849226672603</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -852,10 +852,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2915.460499347567</v>
+        <v>2878.110543516408</v>
       </c>
       <c r="C8">
-        <v>-0.8038199692955459</v>
+        <v>-0.2717074605679954</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -863,10 +863,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2919.668787188641</v>
+        <v>2885.097889417392</v>
       </c>
       <c r="C9">
-        <v>4.208287841073343</v>
+        <v>6.987345900984565</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -874,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2918.510482978299</v>
+        <v>2884.078358905709</v>
       </c>
       <c r="C10">
-        <v>-1.158304210342067</v>
+        <v>-1.01953051168357</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -885,10 +885,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2921.749746566613</v>
+        <v>2888.980580180622</v>
       </c>
       <c r="C11">
-        <v>3.239263588314316</v>
+        <v>4.9022212749137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -896,10 +896,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2920.880006029478</v>
+        <v>2887.420312761407</v>
       </c>
       <c r="C12">
-        <v>-0.8697405371349305</v>
+        <v>-1.560267419215052</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -907,10 +907,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2923.857183798312</v>
+        <v>2890.98792187489</v>
       </c>
       <c r="C13">
-        <v>2.977177768834281</v>
+        <v>3.567609113482831</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -918,10 +918,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2923.638810425366</v>
+        <v>2889.535088422262</v>
       </c>
       <c r="C14">
-        <v>-0.2183733729466439</v>
+        <v>-1.452833452628511</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -929,10 +929,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2926.667763579879</v>
+        <v>2892.599131066007</v>
       </c>
       <c r="C15">
-        <v>3.028953154513601</v>
+        <v>3.064042643745779</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -940,10 +940,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2927.102973242968</v>
+        <v>2891.772809686921</v>
       </c>
       <c r="C16">
-        <v>0.435209663088699</v>
+        <v>-0.8263213790864938</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -951,10 +951,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2930.171593676471</v>
+        <v>2894.837247793866</v>
       </c>
       <c r="C17">
-        <v>3.068620433503384</v>
+        <v>3.06443810694509</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -962,10 +962,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2931.053648256101</v>
+        <v>2894.789158363775</v>
       </c>
       <c r="C18">
-        <v>0.8820545796293118</v>
+        <v>-0.04808943009084032</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -973,10 +973,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2934.019320655445</v>
+        <v>2897.964176197677</v>
       </c>
       <c r="C19">
-        <v>2.96567239934393</v>
+        <v>3.175017833902075</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -984,10 +984,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2935.120610741337</v>
+        <v>2898.538560209373</v>
       </c>
       <c r="C20">
-        <v>1.101290085892742</v>
+        <v>0.574384011696111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -995,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2937.870055923164</v>
+        <v>2901.69400589739</v>
       </c>
       <c r="C21">
-        <v>2.749445181826559</v>
+        <v>3.155445688016698</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1006,10 +1006,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2939.050672547854</v>
+        <v>2902.618885963594</v>
       </c>
       <c r="C22">
-        <v>1.180616624689719</v>
+        <v>0.9248800662035137</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1017,10 +1017,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2941.560669166708</v>
+        <v>2905.582333242151</v>
       </c>
       <c r="C23">
-        <v>2.50999661885453</v>
+        <v>2.963447278556941</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1028,10 +1028,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2942.780783028873</v>
+        <v>2906.636149370549</v>
       </c>
       <c r="C24">
-        <v>1.220113862164908</v>
+        <v>1.053816128398466</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1039,10 +1039,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2945.098980840562</v>
+        <v>2909.317595084221</v>
       </c>
       <c r="C25">
-        <v>2.318197811688606</v>
+        <v>2.681445713671565</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1050,10 +1050,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2946.376336370282</v>
+        <v>2910.398685125824</v>
       </c>
       <c r="C26">
-        <v>1.277355529720808</v>
+        <v>1.081090041603147</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1061,10 +1061,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2948.572707220987</v>
+        <v>2912.813977628608</v>
       </c>
       <c r="C27">
-        <v>2.19637085070508</v>
+        <v>2.415292502784723</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1072,10 +1072,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2949.934143229493</v>
+        <v>2913.921894147641</v>
       </c>
       <c r="C28">
-        <v>1.361436008505279</v>
+        <v>1.107916519032187</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1083,10 +1083,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2952.063241435782</v>
+        <v>2916.149961355795</v>
       </c>
       <c r="C29">
-        <v>2.129098206289655</v>
+        <v>2.228067208154243</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1094,10 +1094,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2953.5177581522</v>
+        <v>2917.327516233508</v>
       </c>
       <c r="C30">
-        <v>1.454516716417402</v>
+        <v>1.177554877712737</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1105,10 +1105,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2955.606151242863</v>
+        <v>2919.453329333332</v>
       </c>
       <c r="C31">
-        <v>2.08839309066343</v>
+        <v>2.125813099824427</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1116,10 +1116,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2957.142219601521</v>
+        <v>2920.735634983458</v>
       </c>
       <c r="C32">
-        <v>1.536068358657303</v>
+        <v>1.282305650126091</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1127,10 +1127,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2959.195225979073</v>
+        <v>2922.814202733069</v>
       </c>
       <c r="C33">
-        <v>2.05300637755272</v>
+        <v>2.078567749610556</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1138,10 +1138,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2960.791273628017</v>
+        <v>2924.206507343099</v>
       </c>
       <c r="C34">
-        <v>1.596047648944023</v>
+        <v>1.392304610029896</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1149,10 +1149,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2962.806101037421</v>
+        <v>2926.256583906317</v>
       </c>
       <c r="C35">
-        <v>2.014827409404006</v>
+        <v>2.050076563218681</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1160,10 +1160,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2964.441937612203</v>
+        <v>2927.738508781847</v>
       </c>
       <c r="C36">
-        <v>1.635836574781479</v>
+        <v>1.481924875529785</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1171,10 +1171,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2966.417457844957</v>
+        <v>2929.755896566766</v>
       </c>
       <c r="C37">
-        <v>1.975520232753752</v>
+        <v>2.017387784919265</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1182,10 +1182,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2968.080103915502</v>
+        <v>2931.29768844121</v>
       </c>
       <c r="C38">
-        <v>1.662646070545179</v>
+        <v>1.541791874443788</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1193,10 +1193,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2970.020094294096</v>
+        <v>2933.272824053845</v>
       </c>
       <c r="C39">
-        <v>1.939990378594302</v>
+        <v>1.975135612634858</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1204,10 +1204,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2971.703671900486</v>
+        <v>2934.849852654198</v>
       </c>
       <c r="C40">
-        <v>1.683577606389917</v>
+        <v>1.577028600352605</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1215,10 +1215,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2973.615275154988</v>
+        <v>2936.779164507487</v>
       </c>
       <c r="C41">
-        <v>1.911603254502552</v>
+        <v>1.929311853289619</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1226,10 +1226,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2975.317871795649</v>
+        <v>2938.378076552711</v>
       </c>
       <c r="C42">
-        <v>1.702596640660431</v>
+        <v>1.598912045223642</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1237,10 +1237,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2977.208580970962</v>
+        <v>2940.266455352528</v>
       </c>
       <c r="C43">
-        <v>1.890709175312622</v>
+        <v>1.888378799817474</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1248,10 +1248,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2978.929116470121</v>
+        <v>2941.883579391275</v>
       </c>
       <c r="C44">
-        <v>1.720535499159723</v>
+        <v>1.617124038746624</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1259,10 +1259,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2980.804669544357</v>
+        <v>2943.74090849692</v>
       </c>
       <c r="C45">
-        <v>1.87555307423554</v>
+        <v>1.857329105645022</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1270,10 +1270,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2982.541291440944</v>
+        <v>2945.377115877971</v>
       </c>
       <c r="C46">
-        <v>1.736621896587167</v>
+        <v>1.636207381051008</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1281,10 +1281,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2984.405178355014</v>
+        <v>2947.213399820035</v>
       </c>
       <c r="C47">
-        <v>1.863886914070008</v>
+        <v>1.836283942064256</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1292,10 +1292,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2986.155174544052</v>
+        <v>2948.869496400535</v>
       </c>
       <c r="C48">
-        <v>1.749996189038029</v>
+        <v>1.656096580500162</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1303,10 +1303,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2988.009263386593</v>
+        <v>2950.691738001646</v>
       </c>
       <c r="C49">
-        <v>1.854088842540932</v>
+        <v>1.822241601110818</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1314,10 +1314,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>2989.769718475835</v>
+        <v>2952.366358617236</v>
       </c>
       <c r="C50">
-        <v>1.760455089242441</v>
+        <v>1.674620615589902</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1325,10 +1325,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2991.615168238892</v>
+        <v>2954.178014806293</v>
       </c>
       <c r="C51">
-        <v>1.845449763056877</v>
+        <v>1.811656189056976</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1336,10 +1336,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2993.383606132965</v>
+        <v>2955.867863032572</v>
       </c>
       <c r="C52">
-        <v>1.768437894073031</v>
+        <v>1.689848226279082</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1347,10 +1347,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2995.22149477647</v>
+        <v>2957.670035378512</v>
       </c>
       <c r="C53">
-        <v>1.837888643504812</v>
+        <v>1.802172345940107</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1358,10 +1358,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2996.996145769548</v>
+        <v>2959.371227247417</v>
       </c>
       <c r="C54">
-        <v>1.774650993078012</v>
+        <v>1.701191868904971</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1369,10 +1369,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2998.827667969408</v>
+        <v>2961.164253778242</v>
       </c>
       <c r="C55">
-        <v>1.831522199859592</v>
+        <v>1.793026530825045</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1380,10 +1380,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3000.607380243567</v>
+        <v>2962.873549540624</v>
       </c>
       <c r="C56">
-        <v>1.77971227415901</v>
+        <v>1.709295762382226</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1391,10 +1391,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3002.433757421763</v>
+        <v>2964.658063290748</v>
       </c>
       <c r="C57">
-        <v>1.826377178196708</v>
+        <v>1.784513750124006</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1402,10 +1402,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3004.21775140045</v>
+        <v>2966.37338858693</v>
       </c>
       <c r="C58">
-        <v>1.78399397868634</v>
+        <v>1.715325296181618</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1413,10 +1413,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3006.040067934111</v>
+        <v>2968.150592163682</v>
       </c>
       <c r="C59">
-        <v>1.822316533661706</v>
+        <v>1.777203576752072</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1424,10 +1424,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3007.827717758728</v>
+        <v>2969.870882668689</v>
       </c>
       <c r="C60">
-        <v>1.787649824616437</v>
+        <v>1.720290505006687</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1435,10 +1435,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3009.646823668475</v>
+        <v>2971.642286585462</v>
       </c>
       <c r="C61">
-        <v>1.819105909747122</v>
+        <v>1.77140391677267</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1446,10 +1446,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>3011.437547389863</v>
+        <v>2973.367016681517</v>
       </c>
       <c r="C62">
-        <v>1.790723721387621</v>
+        <v>1.724730096055737</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1457,10 +1457,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>3013.254059749046</v>
+        <v>2975.134038413537</v>
       </c>
       <c r="C63">
-        <v>1.81651235918298</v>
+        <v>1.767021732019657</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1468,10 +1468,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3015.047306046346</v>
+        <v>2976.862791880873</v>
       </c>
       <c r="C64">
-        <v>1.793246297299902</v>
+        <v>1.728753467335991</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1479,10 +1479,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3016.861671578903</v>
+        <v>2978.626497165572</v>
       </c>
       <c r="C65">
-        <v>1.814365532557076</v>
+        <v>1.763705284698972</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1490,10 +1490,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3018.656949829335</v>
+        <v>2980.358757557758</v>
       </c>
       <c r="C66">
-        <v>1.795278250432148</v>
+        <v>1.732260392185708</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1501,10 +1501,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>3020.469516231837</v>
+        <v>2982.119823195709</v>
       </c>
       <c r="C67">
-        <v>1.812566402502398</v>
+        <v>1.76106563795156</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1512,10 +1512,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>3022.26642323747</v>
+        <v>2983.854974304675</v>
       </c>
       <c r="C68">
-        <v>1.796907005633329</v>
+        <v>1.735151108965511</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1523,10 +1523,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>3024.07748672659</v>
+        <v>2985.613802696076</v>
       </c>
       <c r="C69">
-        <v>1.811063489119078</v>
+        <v>1.758828391401494</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1534,10 +1534,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>3025.875710273869</v>
+        <v>2987.351231777345</v>
       </c>
       <c r="C70">
-        <v>1.798223547279122</v>
+        <v>1.737429081269056</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1545,10 +1545,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>3027.685533859161</v>
+        <v>2989.108101465168</v>
       </c>
       <c r="C71">
-        <v>1.809823585292634</v>
+        <v>1.756869687822473</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1556,10 +1556,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3029.484836555545</v>
+        <v>2990.847297647245</v>
       </c>
       <c r="C72">
-        <v>1.79930269638362</v>
+        <v>1.739196182077649</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1567,10 +1567,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>3031.293650089613</v>
+        <v>2992.602467090815</v>
       </c>
       <c r="C73">
-        <v>1.808813534068122</v>
+        <v>1.755169443569685</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1578,10 +1578,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>3033.093846484191</v>
+        <v>2994.343060438441</v>
       </c>
       <c r="C74">
-        <v>1.800196394578052</v>
+        <v>1.740593347626145</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1589,10 +1589,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3034.901842328391</v>
+        <v>2996.096801704626</v>
       </c>
       <c r="C75">
-        <v>1.807995844199468</v>
+        <v>1.753741266184534</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1600,10 +1600,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3036.702780187794</v>
+        <v>2997.838544139344</v>
       </c>
       <c r="C76">
-        <v>1.800937859403803</v>
+        <v>1.741742434718162</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1611,10 +1611,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>3038.510112788529</v>
+        <v>2999.591127450791</v>
       </c>
       <c r="C77">
-        <v>1.807332600734753</v>
+        <v>1.75258331144687</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1622,10 +1622,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>3040.311662574582</v>
+        <v>3001.333846245454</v>
       </c>
       <c r="C78">
-        <v>1.801549786052419</v>
+        <v>1.742718794663688</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1633,10 +1633,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3042.11845337189</v>
+        <v>3003.08551022408</v>
       </c>
       <c r="C79">
-        <v>1.806790797308167</v>
+        <v>1.751663978625857</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1644,10 +1644,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3043.920504348601</v>
+        <v>3004.829065376171</v>
       </c>
       <c r="C80">
-        <v>1.802050976711598</v>
+        <v>1.743555152090721</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1655,10 +1655,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>3045.7268494107</v>
+        <v>3006.579998232464</v>
       </c>
       <c r="C81">
-        <v>1.806345062098444</v>
+        <v>1.750932856293275</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1666,10 +1666,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>3047.529308705129</v>
+        <v>3008.324259598759</v>
       </c>
       <c r="C82">
-        <v>1.802459294429354</v>
+        <v>1.744261366294268</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1677,10 +1677,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>3049.335285920548</v>
+        <v>3010.074598878336</v>
       </c>
       <c r="C83">
-        <v>1.805977215419261</v>
+        <v>1.750339279577474</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1688,10 +1688,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>3051.138077611967</v>
+        <v>3011.81944251543</v>
       </c>
       <c r="C84">
-        <v>1.802791691418861</v>
+        <v>1.744843637093709</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1699,10 +1699,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3052.943751705262</v>
+        <v>3013.569287742208</v>
       </c>
       <c r="C85">
-        <v>1.805674093295238</v>
+        <v>1.749845226778689</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1710,10 +1710,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>3054.74681481878</v>
+        <v>3015.314602110471</v>
       </c>
       <c r="C86">
-        <v>1.803063113517055</v>
+        <v>1.74531436826237</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1721,10 +1721,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3056.552240131237</v>
+        <v>3017.064030355429</v>
       </c>
       <c r="C87">
-        <v>1.805425312457373</v>
+        <v>1.749428244958381</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1732,10 +1732,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>3058.355525824556</v>
+        <v>3018.80972281638</v>
       </c>
       <c r="C88">
-        <v>1.80328569331914</v>
+        <v>1.745692460950522</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1743,10 +1743,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3060.16074772251</v>
+        <v>3020.558799918481</v>
       </c>
       <c r="C89">
-        <v>1.805221897954198</v>
+        <v>1.749077102101182</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1754,10 +1754,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3061.964216457996</v>
+        <v>3022.304798518925</v>
       </c>
       <c r="C90">
-        <v>1.803468735485694</v>
+        <v>1.745998600444182</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1765,10 +1765,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3063.76927229292</v>
+        <v>3024.053583841899</v>
       </c>
       <c r="C91">
-        <v>1.805055834924133</v>
+        <v>1.748785322974072</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1776,10 +1776,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>3065.572891588273</v>
+        <v>3025.79983429302</v>
       </c>
       <c r="C92">
-        <v>1.803619295353201</v>
+        <v>1.746250451120886</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1787,10 +1787,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3067.377811726215</v>
+        <v>3027.548380819793</v>
       </c>
       <c r="C93">
-        <v>1.80492013794219</v>
+        <v>1.748546526773225</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1798,10 +1798,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>3069.181554638344</v>
+        <v>3029.294841250732</v>
       </c>
       <c r="C94">
-        <v>1.803742912128655</v>
+        <v>1.746460430938896</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1809,10 +1809,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>3070.986363638865</v>
+        <v>3031.043194100802</v>
       </c>
       <c r="C95">
-        <v>1.804809000521345</v>
+        <v>1.74835285006975</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1820,10 +1820,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3072.790207809269</v>
+        <v>3032.789830295338</v>
       </c>
       <c r="C96">
-        <v>1.803844170403863</v>
+        <v>1.746636194536222</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1831,10 +1831,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3074.594925600586</v>
+        <v>3034.538025952146</v>
       </c>
       <c r="C97">
-        <v>1.804717791316762</v>
+        <v>1.748195656807638</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1842,10 +1842,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3076.398852593229</v>
+        <v>3036.284808464802</v>
       </c>
       <c r="C98">
-        <v>1.803926992643028</v>
+        <v>1.746782512655955</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1853,10 +1853,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>3078.203495473869</v>
+        <v>3038.032875458685</v>
       </c>
       <c r="C99">
-        <v>1.804642880640131</v>
+        <v>1.74806699388364</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1864,10 +1864,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3080.007490207418</v>
+        <v>3039.779778568497</v>
       </c>
       <c r="C100">
-        <v>1.803994733548734</v>
+        <v>1.746903109812138</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1875,10 +1875,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3081.81207160101</v>
+        <v>3041.527739176124</v>
       </c>
       <c r="C101">
-        <v>1.804581393592343</v>
+        <v>1.747960607626283</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1886,10 +1886,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>3083.616121798961</v>
+        <v>3043.274740850404</v>
       </c>
       <c r="C102">
-        <v>1.804050197950801</v>
+        <v>1.74700167428</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1897,10 +1897,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>3085.420652788581</v>
+        <v>3045.02261296623</v>
       </c>
       <c r="C103">
-        <v>1.804530989619707</v>
+        <v>1.74787211582634</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1908,10 +1908,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>3087.224748457944</v>
+        <v>3046.769694971185</v>
       </c>
       <c r="C104">
-        <v>1.804095669363505</v>
+        <v>1.747082004955246</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1919,10 +1919,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>3089.029238174095</v>
+        <v>3048.517493523527</v>
       </c>
       <c r="C105">
-        <v>1.804489716150783</v>
+        <v>1.747798552341465</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1930,10 +1930,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3090.833371150758</v>
+        <v>3050.264641212916</v>
       </c>
       <c r="C106">
-        <v>1.804132976662459</v>
+        <v>1.747147689388839</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1941,10 +1941,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>3092.637827082169</v>
+        <v>3052.012378942092</v>
       </c>
       <c r="C107">
-        <v>1.804455931411212</v>
+        <v>1.747737729176151</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1952,10 +1952,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>3094.441990666538</v>
+        <v>3053.759580690022</v>
       </c>
       <c r="C108">
-        <v>1.804163584369235</v>
+        <v>1.747201747930376</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1963,10 +1963,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>3096.246418932686</v>
+        <v>3055.50726845109</v>
       </c>
       <c r="C109">
-        <v>1.804428266147625</v>
+        <v>1.747687761067482</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1974,10 +1974,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>3098.050607612843</v>
+        <v>3057.254514938017</v>
       </c>
       <c r="C110">
-        <v>1.80418868015704</v>
+        <v>1.747246486926997</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1985,10 +1985,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>3099.855013208381</v>
+        <v>3059.002161807432</v>
       </c>
       <c r="C111">
-        <v>1.804405595538356</v>
+        <v>1.747646869415803</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1996,10 +1996,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>3101.65922245048</v>
+        <v>3060.749445387775</v>
       </c>
       <c r="C112">
-        <v>1.80420924209875</v>
+        <v>1.747283580342355</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2007,10 +2007,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>3103.463609457437</v>
+        <v>3062.497058786029</v>
       </c>
       <c r="C113">
-        <v>1.804387006957313</v>
+        <v>1.747613398254543</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2018,10 +2018,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>3105.267835540108</v>
+        <v>3064.244373055384</v>
       </c>
       <c r="C114">
-        <v>1.804226082670539</v>
+        <v>1.74731426935432</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2029,10 +2029,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>3107.072207302965</v>
+        <v>3065.991958962103</v>
       </c>
       <c r="C115">
-        <v>1.804371762857045</v>
+        <v>1.747585906718996</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2040,10 +2040,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>3108.876447179062</v>
+        <v>3067.739298517132</v>
       </c>
       <c r="C116">
-        <v>1.804239876097199</v>
+        <v>1.747339555029157</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2051,10 +2051,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>3110.680806443481</v>
+        <v>3069.486861748743</v>
       </c>
       <c r="C117">
-        <v>1.804359264419418</v>
+        <v>1.747563231611366</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2062,10 +2062,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>3112.485057621216</v>
+        <v>3071.234222063273</v>
       </c>
       <c r="C118">
-        <v>1.804251177734386</v>
+        <v>1.747360314529487</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2073,10 +2073,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3114.289406642474</v>
+        <v>3072.981766544772</v>
       </c>
       <c r="C119">
-        <v>1.804349021258076</v>
+        <v>1.747544481499517</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2084,10 +2084,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3116.09366708378</v>
+        <v>3074.729143881712</v>
       </c>
       <c r="C120">
-        <v>1.804260441305814</v>
+        <v>1.747377336939735</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2095,10 +2095,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>3117.898007712819</v>
+        <v>3076.476672860847</v>
       </c>
       <c r="C121">
-        <v>1.804340629038961</v>
+        <v>1.747528979134586</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2106,10 +2106,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>3119.702275748688</v>
+        <v>3078.224064174063</v>
       </c>
       <c r="C122">
-        <v>1.804268035869427</v>
+        <v>1.747391313216667</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2117,10 +2117,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>3121.506609502499</v>
+        <v>3079.971580364172</v>
       </c>
       <c r="C123">
-        <v>1.804333753811079</v>
+        <v>1.747516190108399</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2128,10 +2128,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>3123.310883764345</v>
+        <v>3081.718983183276</v>
       </c>
       <c r="C124">
-        <v>1.804274261846331</v>
+        <v>1.747402819104082</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2139,10 +2139,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>3125.115211884909</v>
+        <v>3083.466488851038</v>
       </c>
       <c r="C125">
-        <v>1.804328120563241</v>
+        <v>1.747505667762198</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2150,10 +2150,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>3126.919491249735</v>
+        <v>3085.213901164426</v>
       </c>
       <c r="C126">
-        <v>1.804279364826016</v>
+        <v>1.74741231338794</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2161,10 +2161,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>3128.72381475363</v>
+        <v>3086.961398189119</v>
       </c>
       <c r="C127">
-        <v>1.804323503894921</v>
+        <v>1.74749702469353</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2172,10 +2172,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>3130.528098300117</v>
+        <v>3088.708818343275</v>
       </c>
       <c r="C128">
-        <v>1.804283546487568</v>
+        <v>1.747420154155407</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2183,10 +2183,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>3132.332418019845</v>
+        <v>3090.456308268219</v>
       </c>
       <c r="C129">
-        <v>1.804319719728028</v>
+        <v>1.747489924944603</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2194,10 +2194,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>3134.136704992666</v>
+        <v>3092.203734892224</v>
       </c>
       <c r="C130">
-        <v>1.804286972821046</v>
+        <v>1.74742662400422</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2205,10 +2205,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>3135.941021610509</v>
+        <v>3093.951218977011</v>
       </c>
       <c r="C131">
-        <v>1.804316617843142</v>
+        <v>1.747484084787175</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2216,10 +2216,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>3137.745311390865</v>
+        <v>3095.698650930547</v>
       </c>
       <c r="C132">
-        <v>1.804289780355248</v>
+        <v>1.747431953535852</v>
       </c>
     </row>
   </sheetData>
